--- a/v0.7/ValueSet-informational-messages-codes.xlsx
+++ b/v0.7/ValueSet-informational-messages-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Package cost of one session</t>
-  </si>
-  <si>
-    <t>MG072B</t>
   </si>
   <si>
     <t>MG075A</t>
@@ -141,82 +138,22 @@
 Can be booked for a pt. already admitted under any medical package.</t>
   </si>
   <si>
-    <t>MG076A</t>
-  </si>
-  <si>
-    <t>MO013A</t>
-  </si>
-  <si>
-    <t>Stage II and III anal Cancer</t>
-  </si>
-  <si>
     <t>MO014F</t>
   </si>
   <si>
     <t>Neoadjuvant and adjuvant rectal cancer</t>
   </si>
   <si>
-    <t>MO015B</t>
-  </si>
-  <si>
-    <t>Upper esophageal  neoadjuvant and  with RT as adjuvant</t>
-  </si>
-  <si>
-    <t>MO062A</t>
+    <t>MO062A1</t>
   </si>
   <si>
     <t>ACUTE LYMPHOBLASTIC LEUKEMIA</t>
   </si>
   <si>
-    <t>MO062B</t>
-  </si>
-  <si>
-    <t>MO062C</t>
-  </si>
-  <si>
-    <t>MO068C</t>
-  </si>
-  <si>
-    <t>NON-HODGKINS LYMPHOMA</t>
-  </si>
-  <si>
     <t>MR001A</t>
   </si>
   <si>
     <t>The Procedure will cover ALL, Hodgkin's Lymphoma, Wilm's Tumour, NHL, Retinoblastoma &amp; certain Bone Tumours`</t>
-  </si>
-  <si>
-    <t>MR001B</t>
-  </si>
-  <si>
-    <t>MR001C</t>
-  </si>
-  <si>
-    <t>MR004A</t>
-  </si>
-  <si>
-    <t>MR004B</t>
-  </si>
-  <si>
-    <t>MR004C</t>
-  </si>
-  <si>
-    <t>MR006A</t>
-  </si>
-  <si>
-    <t>MR006B</t>
-  </si>
-  <si>
-    <t>MR006C</t>
-  </si>
-  <si>
-    <t>MR009A</t>
-  </si>
-  <si>
-    <t>MR009B</t>
-  </si>
-  <si>
-    <t>MR009C</t>
   </si>
   <si>
     <t>SB030A</t>
@@ -235,23 +172,11 @@
 For Hospitals booking Surgical Correction in Type I &amp; Type II cases, Medical Audit will be conducted.</t>
   </si>
   <si>
-    <t>SB032B</t>
-  </si>
-  <si>
     <t>SB032C</t>
   </si>
   <si>
     <t>Surgical Management for Type III &amp; IV Rockwood to be decided by the surgeon on case to case basis
 Type V &amp; VI to be taken up for Surgery straight away</t>
-  </si>
-  <si>
-    <t>SB032D</t>
-  </si>
-  <si>
-    <t>SB032E</t>
-  </si>
-  <si>
-    <t>SB032F</t>
   </si>
   <si>
     <t>SB070A</t>
@@ -439,16 +364,6 @@
 (if not received earlier)</t>
   </si>
   <si>
-    <t>MO001J</t>
-  </si>
-  <si>
-    <t>Adjuvant or neoadjuvant therapy breast cancer
-metastatic breast cancer</t>
-  </si>
-  <si>
-    <t>MO001K</t>
-  </si>
-  <si>
     <t>MO001L</t>
   </si>
   <si>
@@ -466,6 +381,10 @@
     <t>MO001N</t>
   </si>
   <si>
+    <t>Adjuvant or neoadjuvant therapy breast cancer
+metastatic breast cancer</t>
+  </si>
+  <si>
     <t>MO001O</t>
   </si>
   <si>
@@ -490,21 +409,6 @@
     <t>Neoadjuvant, adjuvant and metastatic ovarian adenocarcinoma</t>
   </si>
   <si>
-    <t>MO003C</t>
-  </si>
-  <si>
-    <t>MO003D</t>
-  </si>
-  <si>
-    <t>MO003E</t>
-  </si>
-  <si>
-    <t>MO003F</t>
-  </si>
-  <si>
-    <t>MO003G</t>
-  </si>
-  <si>
     <t>MO004A</t>
   </si>
   <si>
@@ -517,22 +421,10 @@
     <t>Germ cell tumour of any site for Neoadjuvant, adjuvant or metastatic first line</t>
   </si>
   <si>
-    <t>MO004C</t>
-  </si>
-  <si>
     <t>MO004D</t>
   </si>
   <si>
     <t>Germ cell tumour second line therapy</t>
-  </si>
-  <si>
-    <t>MO004E</t>
-  </si>
-  <si>
-    <t>MO004F</t>
-  </si>
-  <si>
-    <t>MO004G</t>
   </si>
   <si>
     <t>MO005A</t>
@@ -542,9 +434,6 @@
 Second line</t>
   </si>
   <si>
-    <t>MO005B</t>
-  </si>
-  <si>
     <t>MO005C</t>
   </si>
   <si>
@@ -635,10 +524,10 @@
     <t>Metastatic Melanoma</t>
   </si>
   <si>
-    <t>MO012B</t>
-  </si>
-  <si>
-    <t>MO013B</t>
+    <t>MO013A</t>
+  </si>
+  <si>
+    <t>Stage II and III anal Cancer</t>
   </si>
   <si>
     <t>MO013C</t>
@@ -647,12 +536,6 @@
     <t>Metastatic Anal Cancer</t>
   </si>
   <si>
-    <t>MO013D</t>
-  </si>
-  <si>
-    <t>MO013E</t>
-  </si>
-  <si>
     <t>MO014A</t>
   </si>
   <si>
@@ -665,22 +548,6 @@
     <t>Metastatic Colorectal Cancer</t>
   </si>
   <si>
-    <t>MO014C</t>
-  </si>
-  <si>
-    <t>MO014D</t>
-  </si>
-  <si>
-    <t>MO014E</t>
-  </si>
-  <si>
-    <t>Till completion of RT
-Neoadjuvant and adjuvant rectal cancer</t>
-  </si>
-  <si>
-    <t>MO014G</t>
-  </si>
-  <si>
     <t>MO014H</t>
   </si>
   <si>
@@ -693,7 +560,10 @@
     <t>Neoadjuvant and adjuvant esophageal cancer</t>
   </si>
   <si>
-    <t>MO015C</t>
+    <t>MO015B</t>
+  </si>
+  <si>
+    <t>Upper esophageal  neoadjuvant and  with RT as adjuvant</t>
   </si>
   <si>
     <t>MO015D</t>
@@ -706,12 +576,6 @@
   </si>
   <si>
     <t>Metastatic without RT</t>
-  </si>
-  <si>
-    <t>MO016A</t>
-  </si>
-  <si>
-    <t>Neoadjuvant, adjuvant and metastatic stomach and lower esophageal cancer</t>
   </si>
   <si>
     <t>MO016B</t>
@@ -746,15 +610,6 @@
     <t>Neoadjuvant, adjuvant and metastatic stomach and lower esophageal (adenocarcinoma) cancer</t>
   </si>
   <si>
-    <t>MO016G</t>
-  </si>
-  <si>
-    <t>MO016H</t>
-  </si>
-  <si>
-    <t>MO016I</t>
-  </si>
-  <si>
     <t>MO016J</t>
   </si>
   <si>
@@ -786,12 +641,6 @@
 Liver confined but not suitable for liver directed therapy</t>
   </si>
   <si>
-    <t>MO018A</t>
-  </si>
-  <si>
-    <t>Neoadjuvant, adjuvant and metastatic pancreatic cancer</t>
-  </si>
-  <si>
     <t>MO018B</t>
   </si>
   <si>
@@ -802,9 +651,6 @@
   </si>
   <si>
     <t>Neoadjuvant and adjuvant locally advanced pancreatic cancer</t>
-  </si>
-  <si>
-    <t>MO018D</t>
   </si>
   <si>
     <t>MO018E</t>
@@ -829,6 +675,9 @@
     <t>MO019B</t>
   </si>
   <si>
+    <t>Neoadjuvant, adjuvant and metastatic pancreatic cancer</t>
+  </si>
+  <si>
     <t>MO019C</t>
   </si>
   <si>
@@ -848,15 +697,6 @@
     <t>Metatstatic Gall Bladder Cancer</t>
   </si>
   <si>
-    <t>MO019F</t>
-  </si>
-  <si>
-    <t>MO019G</t>
-  </si>
-  <si>
-    <t>MO019H</t>
-  </si>
-  <si>
     <t>MO020A</t>
   </si>
   <si>
@@ -875,13 +715,6 @@
     <t>Adjuvant therapy</t>
   </si>
   <si>
-    <t>MO021B</t>
-  </si>
-  <si>
-    <t>Till RT ends
-Definitive therapy</t>
-  </si>
-  <si>
     <t>MO022A</t>
   </si>
   <si>
@@ -894,18 +727,12 @@
     <t>Neoadjuvant,adjuvant and metastatic mesothelioma</t>
   </si>
   <si>
-    <t>MO022C</t>
-  </si>
-  <si>
     <t>MO023A</t>
   </si>
   <si>
     <t>Neoadjuvant Chemotherapy and metastatic thymic carcinoma</t>
   </si>
   <si>
-    <t>MO023B</t>
-  </si>
-  <si>
     <t>MO024A</t>
   </si>
   <si>
@@ -948,18 +775,6 @@
     <t>Neoadjuvant, adjuvant and metastatic esthesioneuroblastoma and Neuroendocrine carcinoma</t>
   </si>
   <si>
-    <t>MO024H</t>
-  </si>
-  <si>
-    <t>MO024I</t>
-  </si>
-  <si>
-    <t>MO024J</t>
-  </si>
-  <si>
-    <t>MO024K</t>
-  </si>
-  <si>
     <t>MO024L</t>
   </si>
   <si>
@@ -972,15 +787,6 @@
     <t>Metastatic squamous cell head and neck cancer, salivary gland cancers</t>
   </si>
   <si>
-    <t>MO024N</t>
-  </si>
-  <si>
-    <t>MO024O</t>
-  </si>
-  <si>
-    <t>MO024P</t>
-  </si>
-  <si>
     <t>MO025A</t>
   </si>
   <si>
@@ -999,88 +805,28 @@
     <t>Neoadjuvant, Adjuvant, Metastatic urothelial cancer</t>
   </si>
   <si>
-    <t>MO026C</t>
-  </si>
-  <si>
-    <t>MO026D</t>
-  </si>
-  <si>
-    <t>MO026E</t>
-  </si>
-  <si>
     <t>MO026F</t>
   </si>
   <si>
     <t>Metastatic urothelial cancer</t>
   </si>
   <si>
-    <t>MO026G</t>
-  </si>
-  <si>
-    <t>MO026H</t>
-  </si>
-  <si>
-    <t>MO026I</t>
-  </si>
-  <si>
-    <t>MO026J</t>
-  </si>
-  <si>
-    <t>MO026K</t>
-  </si>
-  <si>
     <t>MO027A</t>
   </si>
   <si>
     <t>Neoadjuvant, Adjuvant, Metastatic penile cancer</t>
   </si>
   <si>
-    <t>MO027B</t>
-  </si>
-  <si>
     <t>MO027C</t>
   </si>
   <si>
     <t>Metastatic Penile Cancer</t>
   </si>
   <si>
-    <t>MO027D</t>
-  </si>
-  <si>
-    <t>MO027E</t>
-  </si>
-  <si>
-    <t>MO027F</t>
-  </si>
-  <si>
-    <t>MO027G</t>
-  </si>
-  <si>
     <t>MO028A</t>
   </si>
   <si>
     <t>Metastatic prostate cancer</t>
-  </si>
-  <si>
-    <t>MO028B</t>
-  </si>
-  <si>
-    <t>MO028C</t>
-  </si>
-  <si>
-    <t>MO028D</t>
-  </si>
-  <si>
-    <t>MO028E</t>
-  </si>
-  <si>
-    <t>MO028F</t>
-  </si>
-  <si>
-    <t>MO028G</t>
-  </si>
-  <si>
-    <t>MO028H</t>
   </si>
   <si>
     <t>MO033A</t>
@@ -1120,30 +866,18 @@
     <t>Low Grade Glioma</t>
   </si>
   <si>
-    <t>MO055B</t>
-  </si>
-  <si>
     <t>MO056A</t>
   </si>
   <si>
     <t>Medulloblastoma</t>
   </si>
   <si>
-    <t>MO056B</t>
-  </si>
-  <si>
     <t>MO057A</t>
   </si>
   <si>
     <t>Neuroblastoma</t>
   </si>
   <si>
-    <t>MO057B</t>
-  </si>
-  <si>
-    <t>MO057C</t>
-  </si>
-  <si>
     <t>MO058A</t>
   </si>
   <si>
@@ -1156,21 +890,18 @@
     <t>Rhabdomyosarcoma</t>
   </si>
   <si>
-    <t>MO059B</t>
-  </si>
-  <si>
     <t>MO060A</t>
   </si>
   <si>
     <t>Relapsed Rhabdomyosarcoma</t>
   </si>
   <si>
+    <t>MO062A</t>
+  </si>
+  <si>
     <t>Phase II, CNS Therapy Reinduction</t>
   </si>
   <si>
-    <t>MO063A</t>
-  </si>
-  <si>
     <t>MO066A</t>
   </si>
   <si>
@@ -1183,48 +914,18 @@
     <t>Hodgkins Lymphoma</t>
   </si>
   <si>
-    <t>MO067A</t>
-  </si>
-  <si>
-    <t>MO067B</t>
-  </si>
-  <si>
-    <t>MO067C</t>
-  </si>
-  <si>
     <t>MO068A</t>
   </si>
   <si>
     <t>Non - Hodgkins Lymphoma</t>
   </si>
   <si>
-    <t>MO068B</t>
-  </si>
-  <si>
-    <t>MO068D</t>
-  </si>
-  <si>
     <t>MO071A</t>
   </si>
   <si>
     <t>Metstatic non small cell lung cancer - second line</t>
   </si>
   <si>
-    <t>MO071B</t>
-  </si>
-  <si>
-    <t>Metastatic non small cell lung cancer</t>
-  </si>
-  <si>
-    <t>MO071C</t>
-  </si>
-  <si>
-    <t>MO071D</t>
-  </si>
-  <si>
-    <t>Metastatic Non Small cell lung cancer - first line</t>
-  </si>
-  <si>
     <t>MO071E</t>
   </si>
   <si>
@@ -1249,37 +950,16 @@
     <t>Neoadjuvant, concurrent with radiation and metastaic small cell lung cancer</t>
   </si>
   <si>
-    <t>MO071I</t>
-  </si>
-  <si>
-    <t>MO071J</t>
-  </si>
-  <si>
     <t>MO071K</t>
   </si>
   <si>
     <t>Neoadjuvant and Metastatic Non Small Cell Lung cancer</t>
   </si>
   <si>
-    <t>MO071L</t>
-  </si>
-  <si>
-    <t>MO071M</t>
-  </si>
-  <si>
-    <t>MO071N</t>
-  </si>
-  <si>
     <t>MO071O</t>
   </si>
   <si>
     <t>Concurrent chemoradiation in Non Small Cell lung cancer</t>
-  </si>
-  <si>
-    <t>MO071P</t>
-  </si>
-  <si>
-    <t>Neoadjuvant, Adjuvant and Metastatic Non Small Cell Lung Cancer</t>
   </si>
   <si>
     <t>MO071Q</t>
@@ -1294,12 +974,6 @@
     <t>Metastatic non small cell lung cancer (adenocarcinoma) as maintenance after
 Carboplatin + Pemetrexed and
 Cisplatin + Pemetrexed 4 -6 cycles</t>
-  </si>
-  <si>
-    <t>MO071S</t>
-  </si>
-  <si>
-    <t>MO071T</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1637,7 +1311,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>35</v>
@@ -1655,10 +1329,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>35</v>
@@ -1676,10 +1350,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>35</v>
@@ -1697,10 +1371,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>35</v>
@@ -1718,10 +1392,10 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>35</v>
@@ -1739,10 +1413,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>35</v>
@@ -1760,10 +1434,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>35</v>
@@ -1781,10 +1455,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>35</v>
@@ -1802,10 +1476,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>35</v>
@@ -1823,10 +1497,10 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>35</v>
@@ -1844,10 +1518,10 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>35</v>
@@ -1865,10 +1539,10 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>35</v>
@@ -1886,10 +1560,10 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>35</v>
@@ -1907,10 +1581,10 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>35</v>
@@ -1928,10 +1602,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>35</v>
@@ -1949,10 +1623,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>35</v>
@@ -1970,10 +1644,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>35</v>
@@ -1991,10 +1665,10 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>35</v>
@@ -2012,10 +1686,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>35</v>
@@ -2033,10 +1707,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>35</v>
@@ -2054,10 +1728,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>35</v>
@@ -2075,10 +1749,10 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>35</v>
@@ -2096,10 +1770,10 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>35</v>
@@ -2117,10 +1791,10 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>35</v>
@@ -2138,10 +1812,10 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>35</v>
@@ -2159,10 +1833,10 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>35</v>
@@ -2180,10 +1854,10 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>35</v>
@@ -2201,10 +1875,10 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>35</v>
@@ -2222,10 +1896,10 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>35</v>
@@ -2243,10 +1917,10 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>35</v>
@@ -2264,10 +1938,10 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>35</v>
@@ -2285,10 +1959,10 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>35</v>
@@ -2306,10 +1980,10 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>35</v>
@@ -2327,10 +2001,10 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>35</v>
@@ -2348,10 +2022,10 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>35</v>
@@ -2369,10 +2043,10 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>35</v>
@@ -2390,10 +2064,10 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>35</v>
@@ -2411,10 +2085,10 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>35</v>
@@ -2432,10 +2106,10 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>35</v>
@@ -2453,10 +2127,10 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>35</v>
@@ -2474,10 +2148,10 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>35</v>
@@ -2495,10 +2169,10 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>35</v>
@@ -2516,10 +2190,10 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>35</v>
@@ -2537,10 +2211,10 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>35</v>
@@ -2558,10 +2232,10 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>35</v>
@@ -2579,10 +2253,10 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>35</v>
@@ -2600,10 +2274,10 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>35</v>
@@ -2621,10 +2295,10 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>35</v>
@@ -2642,10 +2316,10 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>35</v>
@@ -2663,10 +2337,10 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>35</v>
@@ -2684,10 +2358,10 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>35</v>
@@ -2705,10 +2379,10 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>35</v>
@@ -2726,10 +2400,10 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>35</v>
@@ -2747,10 +2421,10 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>35</v>
@@ -2768,10 +2442,10 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>35</v>
@@ -2789,10 +2463,10 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>35</v>
@@ -2810,10 +2484,10 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>35</v>
@@ -2831,10 +2505,10 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>35</v>
@@ -2852,10 +2526,10 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>35</v>
@@ -2873,10 +2547,10 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>35</v>
@@ -2894,10 +2568,10 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>35</v>
@@ -2915,10 +2589,10 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>35</v>
@@ -2936,10 +2610,10 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>35</v>
@@ -2957,10 +2631,10 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>35</v>
@@ -2978,10 +2652,10 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>35</v>
@@ -2999,10 +2673,10 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>35</v>
@@ -3020,10 +2694,10 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>35</v>
@@ -3041,10 +2715,10 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>35</v>
@@ -3062,10 +2736,10 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>35</v>
@@ -3083,10 +2757,10 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>35</v>
@@ -3104,10 +2778,10 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>35</v>
@@ -3125,10 +2799,10 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>35</v>
@@ -3146,10 +2820,10 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>35</v>
@@ -3167,10 +2841,10 @@
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>35</v>
@@ -3188,10 +2862,10 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>35</v>
@@ -3209,10 +2883,10 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>35</v>
@@ -3230,10 +2904,10 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>35</v>
@@ -3251,10 +2925,10 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>35</v>
@@ -3272,10 +2946,10 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>35</v>
@@ -3293,10 +2967,10 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>35</v>
@@ -3314,10 +2988,10 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>35</v>
@@ -3335,10 +3009,10 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>35</v>
@@ -3356,10 +3030,10 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>35</v>
@@ -3377,10 +3051,10 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>35</v>
@@ -3398,10 +3072,10 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>35</v>
@@ -3419,10 +3093,10 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>35</v>
@@ -3440,10 +3114,10 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>35</v>
@@ -3461,10 +3135,10 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>35</v>
@@ -3482,10 +3156,10 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>35</v>
@@ -3503,10 +3177,10 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>35</v>
@@ -3524,10 +3198,10 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>35</v>
@@ -3545,10 +3219,10 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>35</v>
@@ -3566,10 +3240,10 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>35</v>
@@ -3587,10 +3261,10 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>35</v>
@@ -3608,10 +3282,10 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>35</v>
@@ -3629,10 +3303,10 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>35</v>
@@ -3650,10 +3324,10 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>35</v>
@@ -3671,10 +3345,10 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>35</v>
@@ -3692,10 +3366,10 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>35</v>
@@ -3713,10 +3387,10 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>35</v>
@@ -3734,10 +3408,10 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>35</v>
@@ -3755,10 +3429,10 @@
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>35</v>
@@ -3776,10 +3450,10 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>35</v>
@@ -3797,10 +3471,10 @@
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>35</v>
@@ -3818,10 +3492,10 @@
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>35</v>
@@ -3839,10 +3513,10 @@
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>35</v>
@@ -3860,10 +3534,10 @@
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>35</v>
@@ -3881,10 +3555,10 @@
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>35</v>
@@ -3902,10 +3576,10 @@
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>35</v>
@@ -3923,10 +3597,10 @@
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>35</v>
@@ -3944,10 +3618,10 @@
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>35</v>
@@ -3965,10 +3639,10 @@
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>35</v>
@@ -3986,10 +3660,10 @@
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>35</v>
@@ -4007,10 +3681,10 @@
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>35</v>
@@ -4028,10 +3702,10 @@
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>35</v>
@@ -4049,10 +3723,10 @@
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>35</v>
@@ -4070,10 +3744,10 @@
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>35</v>
@@ -4091,10 +3765,10 @@
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>35</v>
@@ -4112,10 +3786,10 @@
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>35</v>
@@ -4133,10 +3807,10 @@
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>35</v>
@@ -4154,10 +3828,10 @@
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>35</v>
@@ -4175,10 +3849,10 @@
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>35</v>
@@ -4196,10 +3870,10 @@
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>35</v>
@@ -4217,10 +3891,10 @@
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>35</v>
@@ -4238,10 +3912,10 @@
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>35</v>
@@ -4259,10 +3933,10 @@
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>35</v>
@@ -4280,10 +3954,10 @@
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>35</v>
@@ -4301,10 +3975,10 @@
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>35</v>
@@ -4322,10 +3996,10 @@
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>35</v>
@@ -4343,10 +4017,10 @@
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>35</v>
@@ -4364,10 +4038,10 @@
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="F134" t="s" s="2">
         <v>35</v>
@@ -4385,10 +4059,10 @@
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>35</v>
@@ -4406,10 +4080,10 @@
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>35</v>
@@ -4427,2241 +4101,15 @@
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="F137" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="E138" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="E139" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E140" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="E141" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="E142" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="E143" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="E144" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="E145" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="E146" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="E147" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="E148" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="E149" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="E150" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="E151" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="E152" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="E153" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="E154" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="E155" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="E156" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="E157" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="E158" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="E159" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="E160" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="E161" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="E162" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="E163" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="E164" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="E165" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="E166" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="E167" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="F167" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="E168" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="F168" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="E169" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="F169" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="E170" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="E171" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C172" s="2"/>
-      <c r="D172" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="E172" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F172" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C173" s="2"/>
-      <c r="D173" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="E173" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="E174" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="E175" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="E176" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="E177" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="F177" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="E178" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="F178" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C179" s="2"/>
-      <c r="D179" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="E179" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F179" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="E180" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="E181" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="E182" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="E183" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="E184" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C185" s="2"/>
-      <c r="D185" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="E185" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="E186" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="E187" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="E188" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C189" s="2"/>
-      <c r="D189" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="E189" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C190" s="2"/>
-      <c r="D190" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="E190" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E191" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="E192" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C193" s="2"/>
-      <c r="D193" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="E193" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="E194" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B195" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C195" s="2"/>
-      <c r="D195" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="E195" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F195" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B196" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C196" s="2"/>
-      <c r="D196" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="E196" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="E197" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B198" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C198" s="2"/>
-      <c r="D198" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="E198" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="F198" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B199" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C199" s="2"/>
-      <c r="D199" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="E199" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G199" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B200" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C200" s="2"/>
-      <c r="D200" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="E200" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="F200" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G200" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B201" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C201" s="2"/>
-      <c r="D201" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="E201" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="F201" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G201" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B202" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C202" s="2"/>
-      <c r="D202" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="E202" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="F202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G202" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B203" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C203" s="2"/>
-      <c r="D203" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E203" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="F203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B204" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="E204" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="F204" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B205" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C205" s="2"/>
-      <c r="D205" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="E205" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="F205" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B206" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C206" s="2"/>
-      <c r="D206" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="E206" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="F206" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G206" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B207" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="E207" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="F207" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B208" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="E208" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="F208" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G208" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B209" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C209" s="2"/>
-      <c r="D209" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="E209" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="F209" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G209" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B210" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C210" s="2"/>
-      <c r="D210" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="E210" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="F210" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G210" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B211" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="E211" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="F211" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G211" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B212" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="E212" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="F212" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G212" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B213" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E213" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="F213" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G213" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B214" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C214" s="2"/>
-      <c r="D214" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="E214" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="F214" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G214" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B215" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C215" s="2"/>
-      <c r="D215" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="E215" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="F215" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G215" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B216" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="E216" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="F216" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G216" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B217" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="E217" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="F217" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G217" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B218" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C218" s="2"/>
-      <c r="D218" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="E218" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="F218" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G218" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B219" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="E219" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="F219" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G219" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B220" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="E220" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="F220" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G220" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B221" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C221" s="2"/>
-      <c r="D221" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="E221" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="F221" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G221" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B222" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E222" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="F222" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B223" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="E223" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="F223" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G223" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B224" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="E224" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="F224" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G224" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B225" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="E225" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="F225" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G225" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B226" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="E226" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="F226" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B227" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="E227" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="F227" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B228" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C228" s="2"/>
-      <c r="D228" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="E228" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="F228" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B229" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="E229" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="F229" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B230" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="E230" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="F230" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B231" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="E231" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="F231" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="E232" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="F232" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="E233" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="F233" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C234" s="2"/>
-      <c r="D234" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="E234" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="F234" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B235" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C235" s="2"/>
-      <c r="D235" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="E235" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="F235" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G235" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B236" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C236" s="2"/>
-      <c r="D236" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="E236" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="F236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G236" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B237" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="E237" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="F237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G237" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="E238" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="F238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G238" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B239" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="E239" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="F239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G239" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="E240" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="F240" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G240" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C241" s="2"/>
-      <c r="D241" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="E241" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="F241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B242" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C242" s="2"/>
-      <c r="D242" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="E242" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="F242" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G242" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B243" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="E243" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="F243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G243" t="s" s="2">
         <v>35</v>
       </c>
     </row>
